--- a/biology/Botanique/Campanule_à_feuilles_de_Cochléaire/Campanule_à_feuilles_de_Cochléaire.xlsx
+++ b/biology/Botanique/Campanule_à_feuilles_de_Cochléaire/Campanule_à_feuilles_de_Cochléaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campanule_%C3%A0_feuilles_de_Cochl%C3%A9aire</t>
+          <t>Campanule_à_feuilles_de_Cochléaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula cochleariifolia
 La Campanule à feuilles de Cochléaire (Campanula cochleariifolia), également appelée Campanule à feuilles de Cranson, Campanule fluette ou Campanule à feuilles de Raifort, est une espèce de plantes à fleurs herbacée vivace de la famille des campanulacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Campanule_%C3%A0_feuilles_de_Cochl%C3%A9aire</t>
+          <t>Campanule_à_feuilles_de_Cochléaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite en premier par le botaniste français Jean-Baptiste de Lamarck en 1785. De nombreux auteurs lui ont attribué de nombreuses variétés et sous-espèces qui ne sont pas reconnues aujourd'hui. Également, elle a été considéré par d'autres comme formant une sous-espèce ou une variété de Campanula cespitosa ou de Campanula rotundifolia. Cette confusion taxonomique entraîne donc la présence pour cette espèce d'environ 130 synonymes taxonomiques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en premier par le botaniste français Jean-Baptiste de Lamarck en 1785. De nombreux auteurs lui ont attribué de nombreuses variétés et sous-espèces qui ne sont pas reconnues aujourd'hui. Également, elle a été considéré par d'autres comme formant une sous-espèce ou une variété de Campanula cespitosa ou de Campanula rotundifolia. Cette confusion taxonomique entraîne donc la présence pour cette espèce d'environ 130 synonymes taxonomiques.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Campanule_%C3%A0_feuilles_de_Cochl%C3%A9aire</t>
+          <t>Campanule_à_feuilles_de_Cochléaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante basse (15 à 2 cm de hauteur environ), stolonifère, formant de grande plaques, avec des feuilles basilaires pétiolées, cordiformes, visibles lors de la floraison (contrairement à celles des rosettes de Campanula rotundifolia) et de feuilles caulinaires lancéolées, aux fleurs de 12 à 20 mm de long, en cloche, pendantes, souvent tournées d'un même côté.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Campanule_%C3%A0_feuilles_de_Cochl%C3%A9aire</t>
+          <t>Campanule_à_feuilles_de_Cochléaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : cyme unipare hélicoïde
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Campanule_%C3%A0_feuilles_de_Cochl%C3%A9aire</t>
+          <t>Campanule_à_feuilles_de_Cochléaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones de rusticité : 5-9
 Exposition : soleil à mi-ombre 
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Campanule_%C3%A0_feuilles_de_Cochl%C3%A9aire</t>
+          <t>Campanule_à_feuilles_de_Cochléaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,9 +672,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Campanule fluette est naturellement présente en Albanie, Bulgarie, France, Italie, Roumanie, Espagne et Yougoslavie[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Campanule fluette est naturellement présente en Albanie, Bulgarie, France, Italie, Roumanie, Espagne et Yougoslavie.
 </t>
         </is>
       </c>
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Campanule_%C3%A0_feuilles_de_Cochl%C3%A9aire</t>
+          <t>Campanule_à_feuilles_de_Cochléaire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +705,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est protégée en région Alsace (Article 1).
 </t>
